--- a/data/name.xlsx
+++ b/data/name.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -36,82 +36,121 @@
     <t xml:space="preserve">concat</t>
   </si>
   <si>
+    <t xml:space="preserve">fecha</t>
+  </si>
+  <si>
     <t xml:space="preserve">María Lupita Meneses</t>
   </si>
   <si>
     <t xml:space="preserve">Conversatorio sobre Patrimonio Inmueble</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">bolivia.icomos@gmail.com</t>
-    </r>
+    <t xml:space="preserve">participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 de mayo de 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Roberto Montero</t>
   </si>
   <si>
+    <t xml:space="preserve">24 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wilfredo Iván Ríos Murillo</t>
   </si>
   <si>
+    <t xml:space="preserve">25 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Samuel Oporto Pasquier</t>
   </si>
   <si>
+    <t xml:space="preserve">26 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cesar Rodrigo Fabini Bautista</t>
   </si>
   <si>
+    <t xml:space="preserve">27 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cinthia Gimenez Arce</t>
   </si>
   <si>
+    <t xml:space="preserve">28 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eliseo Jadhiel Villafuerte</t>
   </si>
   <si>
+    <t xml:space="preserve">29 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elizabeth Torres</t>
   </si>
   <si>
+    <t xml:space="preserve">30 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liliana María Huaco Durand</t>
   </si>
   <si>
+    <t xml:space="preserve">31 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carlos Rua Landa</t>
   </si>
   <si>
+    <t xml:space="preserve">32 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carmen Mireya Muñoz Vargas</t>
   </si>
   <si>
+    <t xml:space="preserve">33 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amparo Miranda Castro</t>
   </si>
   <si>
+    <t xml:space="preserve">34 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Roberto Marcelo Flores Gonzales</t>
   </si>
   <si>
+    <t xml:space="preserve">35 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zazanda Salcedo Gutiérrez</t>
   </si>
   <si>
+    <t xml:space="preserve">36 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ana Elizabeth Arze Sánchez</t>
   </si>
   <si>
+    <t xml:space="preserve">37 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fabiana Navia Miranda</t>
   </si>
   <si>
+    <t xml:space="preserve">38 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paola Carvallo Elvira</t>
   </si>
   <si>
+    <t xml:space="preserve">39 de mayo de 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gisela Paredes Verastegui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 de mayo de 2020</t>
   </si>
   <si>
     <t xml:space="preserve">method</t>
@@ -304,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -325,11 +364,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -381,7 +415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,7 +424,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,10 +449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -436,297 +474,354 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A2," ",C2))</f>
         <v>María Lupita Meneses participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A3," ",C3))</f>
         <v>Roberto Montero participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A4," ",C4))</f>
         <v>Wilfredo Iván Ríos Murillo participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A5," ",C5))</f>
         <v>Samuel Oporto Pasquier participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A6," ",C6))</f>
         <v>Cesar Rodrigo Fabini Bautista participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A7," ",C7))</f>
         <v>Cinthia Gimenez Arce participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A8," ",C8))</f>
         <v>Eliseo Jadhiel Villafuerte participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A9," ",C9))</f>
         <v>Elizabeth Torres participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E9" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A10," ",C10))</f>
         <v>Liliana María Huaco Durand participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E10" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A11," ",C11))</f>
         <v>Carlos Rua Landa participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A12," ",C12))</f>
         <v>Carmen Mireya Muñoz Vargas participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E12" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A13," ",C13))</f>
         <v>Amparo Miranda Castro participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E13" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A14," ",C14))</f>
         <v>Roberto Marcelo Flores Gonzales participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E14" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A15," ",C15))</f>
         <v>Zazanda Salcedo Gutiérrez participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E15" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A16," ",C16))</f>
         <v>Ana Elizabeth Arze Sánchez participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E16" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A17," ",C17))</f>
         <v>Fabiana Navia Miranda participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E17" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A18," ",C18))</f>
         <v>Paola Carvallo Elvira participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E18" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(A19," ",C19))</f>
         <v>Gisela Paredes Verastegui participó en la conferencia "Conversatorio sobre Patrimonio Inmueble". En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com</v>
       </c>
+      <c r="E19" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C4" r:id="rId3" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C5" r:id="rId4" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C6" r:id="rId5" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C7" r:id="rId6" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C8" r:id="rId7" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C9" r:id="rId8" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C10" r:id="rId9" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C11" r:id="rId10" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C12" r:id="rId11" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C13" r:id="rId12" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C14" r:id="rId13" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C15" r:id="rId14" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C16" r:id="rId15" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C17" r:id="rId16" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C18" r:id="rId17" display="bolivia.icomos@gmail.com"/>
-    <hyperlink ref="C19" r:id="rId18" display="bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId6" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId7" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C9" r:id="rId8" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C10" r:id="rId9" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C11" r:id="rId10" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C12" r:id="rId11" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C13" r:id="rId12" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C14" r:id="rId13" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C15" r:id="rId14" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C16" r:id="rId15" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C17" r:id="rId16" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C18" r:id="rId17" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
+    <hyperlink ref="C19" r:id="rId18" display="participó en la conferencia &quot;Conversatorio sobre Patrimonio Inmueble&quot;. En el ciclo de conferencias ICOMOS VIRTUAL, de fecha 23 de mayo de 2020. Mayor información en bolivia.icomos@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -756,39 +851,39 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2006</v>
@@ -796,19 +891,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2008</v>
@@ -816,19 +911,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2011</v>
@@ -836,19 +931,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2007</v>
@@ -856,19 +951,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2009</v>
@@ -876,19 +971,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2008</v>
@@ -896,19 +991,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2002</v>
@@ -916,16 +1011,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1996</v>
@@ -933,19 +1028,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2008</v>
@@ -953,19 +1048,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2010</v>
@@ -973,19 +1068,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2010</v>
@@ -993,19 +1088,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2009</v>
@@ -1013,19 +1108,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2008</v>
@@ -1033,19 +1128,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1996</v>
@@ -1053,19 +1148,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>2001</v>
@@ -1073,19 +1168,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2009</v>
@@ -1093,19 +1188,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1995</v>
@@ -1113,7 +1208,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
@@ -1122,10 +1217,10 @@
         <v>14651</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1996</v>
@@ -1133,19 +1228,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>165</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2004</v>
@@ -1153,19 +1248,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2002</v>
@@ -1173,16 +1268,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2011</v>
@@ -1190,19 +1285,19 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>172</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2007</v>
